--- a/reduced_data/cloud_data.xlsx
+++ b/reduced_data/cloud_data.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\University\MSc\Models\climate-analysis\reduced_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6656C-8461-484B-BAD0-FA778905F44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
+    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>CMIP5-AMIP-CESM1-CAM5</t>
+  </si>
+  <si>
+    <t>CMIP5-AMIP-GFDL-CM3</t>
+  </si>
+  <si>
+    <t>CMIP5-AMIP-GISS-E2R</t>
+  </si>
+  <si>
+    <t>CMIP5-AMIP-IPSL-CM5A-LR</t>
+  </si>
+  <si>
+    <t>CMIP5-AMIP-MIROC5</t>
+  </si>
+  <si>
+    <t>CMIP5-AMIP-MRI-CGCM3</t>
+  </si>
+  <si>
+    <t>CMIP6-AMIP-CESM2-CAM6</t>
+  </si>
+  <si>
+    <t>CMIP6-AMIP-GFDL-CM4</t>
+  </si>
+  <si>
+    <t>CMIP6-AMIP-IPSL-CM6A-LR</t>
+  </si>
+  <si>
+    <t>CMIP6-AMIP-MIROC6</t>
+  </si>
+  <si>
+    <t>CMIP6-AMIP-MRI-ESM2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +86,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,265 +369,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L9" sqref="L9:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-CESM1-CAM5</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>57.44341291179477</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82.39654550596337</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.36415947076642</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.03412520026733</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-GFDL-CM3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>63.29522070756374</v>
-      </c>
-      <c r="C4" t="n">
-        <v>85.63479502424551</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.16136032869756</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.14533725669821</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-GISS-E2R</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>57.60499007662681</v>
-      </c>
-      <c r="C5" t="n">
-        <v>70.13752635546695</v>
-      </c>
-      <c r="D5" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>57.443412911794773</v>
+      </c>
+      <c r="C3">
+        <v>82.396545505963374</v>
+      </c>
+      <c r="D3">
+        <v>33.364159470766417</v>
+      </c>
+      <c r="E3">
+        <v>58.034125200267333</v>
+      </c>
+      <c r="F3">
+        <v>6.9961619077880233E-2</v>
+      </c>
+      <c r="G3">
+        <v>9.9561722364311905E-2</v>
+      </c>
+      <c r="H3">
+        <v>9.0147723367235574E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.18453426188607011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>63.295220707563743</v>
+      </c>
+      <c r="C4">
+        <v>85.634795024245506</v>
+      </c>
+      <c r="D4">
+        <v>33.161360328697562</v>
+      </c>
+      <c r="E4">
+        <v>58.145337256698213</v>
+      </c>
+      <c r="F4">
+        <v>7.3384864488173593E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.8894984150529363E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.8121601282052542E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.1732922148014133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>57.604990076626812</v>
+      </c>
+      <c r="C5">
+        <v>70.137526355466946</v>
+      </c>
+      <c r="D5">
         <v>29.1631999841008</v>
       </c>
-      <c r="E5" t="n">
-        <v>45.99468075515408</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-IPSL-CM5A-LR</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>41.32896461411467</v>
-      </c>
-      <c r="C6" t="n">
-        <v>62.13791901787091</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E5">
+        <v>45.994680755154079</v>
+      </c>
+      <c r="F5">
+        <v>6.2367819200478132E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.3514411486100495E-2</v>
+      </c>
+      <c r="H5">
+        <v>8.0154018295025442E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.13668863256998329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>41.328964614114668</v>
+      </c>
+      <c r="C6">
+        <v>62.137919017870907</v>
+      </c>
+      <c r="D6">
         <v>11.24658707412614</v>
       </c>
-      <c r="E6" t="n">
-        <v>33.2559695465832</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-MIROC5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>54.80003025944735</v>
-      </c>
-      <c r="C7" t="n">
-        <v>72.02893096004256</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.383961160532</v>
-      </c>
-      <c r="E7" t="n">
-        <v>58.47816530216333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CMIP5-AMIP-MRI-CGCM3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>50.5383986152268</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62.96049880489281</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.40090124874192</v>
-      </c>
-      <c r="E8" t="n">
-        <v>35.56329730101572</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CMIP6-AMIP-CESM2-CAM6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>57.34644083077811</v>
-      </c>
-      <c r="C9" t="n">
-        <v>86.16433243219277</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E6">
+        <v>33.255969546583202</v>
+      </c>
+      <c r="F6">
+        <v>4.8888209591179427E-2</v>
+      </c>
+      <c r="G6">
+        <v>7.2185875913718098E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.1843748672640351E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.10971860262953891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>54.800030259447347</v>
+      </c>
+      <c r="C7">
+        <v>72.028930960042558</v>
+      </c>
+      <c r="D7">
+        <v>40.383961160532003</v>
+      </c>
+      <c r="E7">
+        <v>58.478165302163333</v>
+      </c>
+      <c r="F7">
+        <v>3.8170586383467223E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.6321181256610777E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.1070853922730893</v>
+      </c>
+      <c r="I7">
+        <v>0.16009881461129541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>50.538398615226797</v>
+      </c>
+      <c r="C8">
+        <v>62.960498804892808</v>
+      </c>
+      <c r="D8">
+        <v>23.400901248741921</v>
+      </c>
+      <c r="E8">
+        <v>35.563297301015723</v>
+      </c>
+      <c r="F8">
+        <v>4.7960668944550908E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.1661582987193692E-2</v>
+      </c>
+      <c r="H8">
+        <v>6.4161049065605227E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.10118037595668999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>57.346440830778107</v>
+      </c>
+      <c r="C9">
+        <v>86.164332432192765</v>
+      </c>
+      <c r="D9">
         <v>31.81002960899345</v>
       </c>
-      <c r="E9" t="n">
-        <v>66.50021970103906</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01355865795864017</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02616480116051902</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.04063299747663493</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.03671797867995291</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CMIP6-AMIP-GFDL-CM4</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>55.36371365533858</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79.91271428975051</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.62980835041101</v>
-      </c>
-      <c r="E10" t="n">
-        <v>52.84064033788903</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01394432496147747</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0224648286388856</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03948064688852455</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.04720651929706176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CMIP6-AMIP-IPSL-CM6A-LR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>58.30087219832929</v>
-      </c>
-      <c r="C11" t="n">
-        <v>87.99031947872034</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37.24980026865433</v>
-      </c>
-      <c r="E11" t="n">
-        <v>65.96131080174017</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01753776667669511</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02955981383136502</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.02971954619822722</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.02833958554622112</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CMIP6-AMIP-MIROC6</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>58.59706386130139</v>
-      </c>
-      <c r="C12" t="n">
-        <v>78.87639680932794</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.18130589064942</v>
-      </c>
-      <c r="E12" t="n">
-        <v>60.22085784079675</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CMIP6-AMIP-MRI-ESM2</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>57.40226112625059</v>
-      </c>
-      <c r="C13" t="n">
-        <v>78.21525634214022</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29.99620584240562</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52.41810749492416</v>
+      <c r="E9">
+        <v>66.500219701039057</v>
+      </c>
+      <c r="F9">
+        <v>5.7590853935428871E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.9889970600389623E-2</v>
+      </c>
+      <c r="H9">
+        <v>7.6918657066925175E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.18662601295259279</v>
+      </c>
+      <c r="J9">
+        <v>1.3558657958640171E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.616480116051902E-2</v>
+      </c>
+      <c r="L9">
+        <v>5.7295601230548471E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.1256920085284477</v>
+      </c>
+      <c r="N9">
+        <v>4.063299747663493E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.6717978679952912E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>55.363713655338579</v>
+      </c>
+      <c r="C10">
+        <v>79.912714289750511</v>
+      </c>
+      <c r="D10">
+        <v>27.629808350411011</v>
+      </c>
+      <c r="E10">
+        <v>52.840640337889027</v>
+      </c>
+      <c r="F10">
+        <v>5.711098970137117E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.8066964223585056E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.4305944681462899E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.15771842867408431</v>
+      </c>
+      <c r="J10">
+        <v>1.394432496147747E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.24648286388856E-2</v>
+      </c>
+      <c r="L10">
+        <v>6.1474971633476767E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.1145627320596872</v>
+      </c>
+      <c r="N10">
+        <v>3.9480646888524547E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.7206519297061759E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>58.300872198329287</v>
+      </c>
+      <c r="C11">
+        <v>87.990319478720338</v>
+      </c>
+      <c r="D11">
+        <v>37.249800268654333</v>
+      </c>
+      <c r="E11">
+        <v>65.961310801740169</v>
+      </c>
+      <c r="F11">
+        <v>5.2372147399826138E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.8532968618067638E-2</v>
+      </c>
+      <c r="H11">
+        <v>9.7617863818116157E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.185166845904257</v>
+      </c>
+      <c r="J11">
+        <v>1.7537766676695109E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.9559813831365019E-2</v>
+      </c>
+      <c r="L11">
+        <v>7.9987884394685682E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.14795533552392581</v>
+      </c>
+      <c r="N11">
+        <v>2.9719546198227219E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.8339585546221121E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>58.597063861301393</v>
+      </c>
+      <c r="C12">
+        <v>78.876396809327943</v>
+      </c>
+      <c r="D12">
+        <v>38.181305890649419</v>
+      </c>
+      <c r="E12">
+        <v>60.220857840796747</v>
+      </c>
+      <c r="F12">
+        <v>5.1498777750689527E-2</v>
+      </c>
+      <c r="G12">
+        <v>6.6821192663911136E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.1023909810060785</v>
+      </c>
+      <c r="I12">
+        <v>0.1737658720478612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>57.402261126250593</v>
+      </c>
+      <c r="C13">
+        <v>78.215256342140222</v>
+      </c>
+      <c r="D13">
+        <v>29.996205842405619</v>
+      </c>
+      <c r="E13">
+        <v>52.418107494924158</v>
+      </c>
+      <c r="F13">
+        <v>5.5093356850970929E-2</v>
+      </c>
+      <c r="G13">
+        <v>6.2996517768788438E-2</v>
+      </c>
+      <c r="H13">
+        <v>7.630410474301505E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.13723770715678971</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>